--- a/biology/Biologie cellulaire et moléculaire/Immortalisation_cellulaire/Immortalisation_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Immortalisation_cellulaire/Immortalisation_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immortalisation cellulaire est un terme utilisé en biologie cellulaire, qui consiste à « transformer » une culture de cellules par généralement un agent oncogène (par exemple T de SV40), afin d'établir une lignée cellulaire au potentiel de divisions cellulaires illimitées, c’est-à-dire échappant à la sénescence cellulaire normale.
 Ce processus de dérèglement du cycle cellulaire est proche de la tumorigenèse, processus se mettant en place pour certains cancers.
@@ -513,7 +525,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques d'immortalisation cellulaire sont utilisées pour l'établissement de nombreuses lignées cellulaires.
 </t>
@@ -544,7 +558,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Limite de Hayflick
  Portail de la biologie cellulaire et moléculaire                     </t>
